--- a/medicine/Enfance/Claude_Cénac/Claude_Cénac.xlsx
+++ b/medicine/Enfance/Claude_Cénac/Claude_Cénac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claude_C%C3%A9nac</t>
+          <t>Claude_Cénac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Cénac, née le 16 novembre 1924 à Paris et morte le  17 septembre 2017 à Sarlat-la-Canéda[1], est une écrivaine de littérature jeunesse[2].
-Elle commence sa carrière en écrivant des nouvelles pour les quotidiens régionaux La Dépêche du Midi et Sud Ouest. Son premier roman, Castel Carabignac, est publié en 1960 aux éditions Magnard. Elle meurt en 2017 à Sarlat, à 92 ans[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Cénac, née le 16 novembre 1924 à Paris et morte le  17 septembre 2017 à Sarlat-la-Canéda, est une écrivaine de littérature jeunesse.
+Elle commence sa carrière en écrivant des nouvelles pour les quotidiens régionaux La Dépêche du Midi et Sud Ouest. Son premier roman, Castel Carabignac, est publié en 1960 aux éditions Magnard. Elle meurt en 2017 à Sarlat, à 92 ans.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claude_C%C3%A9nac</t>
+          <t>Claude_Cénac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1960 : Castel Carabignac, Magnard
 1961 : Quatre pattes dans l'aventure, Magnard
